--- a/resources/testdata.xlsx
+++ b/resources/testdata.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1960c40cfce556e6/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neeta\eclipse-AvengersOf4PM\QspPractice\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{8FABBB08-B0F9-40C6-AFF1-063EA2805310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A4E3508-4703-4645-904A-AFD7CEC4A748}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3125D07E-9D33-4CE5-BECB-E8D4127386FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6000" windowWidth="29040" windowHeight="15720" xr2:uid="{90F499AC-AEDF-48D4-8F9A-A372A84B12CC}"/>
+    <workbookView xWindow="-19245" yWindow="-2670" windowWidth="18765" windowHeight="11160" activeTab="2" xr2:uid="{883DBD2A-F7D0-496B-998A-7765A8E345D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Campaigns" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Lead" sheetId="3" r:id="rId2"/>
+    <sheet name="Campaigns" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +38,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>TestCase</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>Price_Per_Unit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>CampaignName</t>
   </si>
   <si>
@@ -50,10 +67,142 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>Pawar</t>
+    <t>iphone_1</t>
   </si>
   <si>
     <t>2326</t>
+  </si>
+  <si>
+    <t>iphone_2</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>iphone_3</t>
+  </si>
+  <si>
+    <t>2328</t>
+  </si>
+  <si>
+    <t>iphone_4</t>
+  </si>
+  <si>
+    <t>2329</t>
+  </si>
+  <si>
+    <t>iphone_5</t>
+  </si>
+  <si>
+    <t>2330</t>
+  </si>
+  <si>
+    <t>iphone_6</t>
+  </si>
+  <si>
+    <t>2331</t>
+  </si>
+  <si>
+    <t>iphone_7</t>
+  </si>
+  <si>
+    <t>2332</t>
+  </si>
+  <si>
+    <t>iphone_8</t>
+  </si>
+  <si>
+    <t>2333</t>
+  </si>
+  <si>
+    <t>iphone_9</t>
+  </si>
+  <si>
+    <t>2334</t>
+  </si>
+  <si>
+    <t>iphone_10</t>
+  </si>
+  <si>
+    <t>2335</t>
+  </si>
+  <si>
+    <t>iphone_11</t>
+  </si>
+  <si>
+    <t>2336</t>
+  </si>
+  <si>
+    <t>iphone_12</t>
+  </si>
+  <si>
+    <t>2337</t>
+  </si>
+  <si>
+    <t>iphone_13</t>
+  </si>
+  <si>
+    <t>2338</t>
+  </si>
+  <si>
+    <t>iphone_14</t>
+  </si>
+  <si>
+    <t>2339</t>
+  </si>
+  <si>
+    <t>iphone_15</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>nancy_</t>
+  </si>
+  <si>
+    <t>Product nancy500500 Successfully Added</t>
+  </si>
+  <si>
+    <t>LeadName</t>
+  </si>
+  <si>
+    <t>LeadStatus</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>LeadSource</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>neeta</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>no source</t>
+  </si>
+  <si>
+    <t>healtcare</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
 </sst>
 </file>
@@ -89,8 +238,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -107,10 +262,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,39 +580,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FA590E-523B-4534-8F42-A3B1595B36F4}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CF6C4C-FABA-4FB3-9FB1-178A64DCBB19}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B18ECD-D541-48F1-93CA-5DFA0682DBEA}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383C0DED-F4AC-4380-8CBE-B2E937B4B6BD}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
